--- a/storage/csv/deployment/CBU FORWARDED AS OF DECEMBER 2024.xlsx
+++ b/storage/csv/deployment/CBU FORWARDED AS OF DECEMBER 2024.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\oxytoxin\Sites\sksumpc\storage\csv\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16746C-0800-4409-91D5-834564547EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULAR" sheetId="1" r:id="rId1"/>
     <sheet name="ASSOCIATE" sheetId="2" r:id="rId2"/>
     <sheet name="LABORATORY" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4806,9 +4825,6 @@
     <t>SKSUMPC-0000-000408</t>
   </si>
   <si>
-    <t>SKSUMPC-0000-000714</t>
-  </si>
-  <si>
     <t>SKSUMPC-0000-000396</t>
   </si>
   <si>
@@ -5521,14 +5537,17 @@
   </si>
   <si>
     <t>SKSUMPC-0000-000718</t>
+  </si>
+  <si>
+    <t>SKSUMPC-1000-000714</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -5645,7 +5664,7 @@
   <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
@@ -5897,245 +5916,245 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="226">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="10"/>
-    <cellStyle name="Normal 100" xfId="100"/>
-    <cellStyle name="Normal 101" xfId="101"/>
-    <cellStyle name="Normal 102" xfId="102"/>
-    <cellStyle name="Normal 103" xfId="103"/>
-    <cellStyle name="Normal 104" xfId="104"/>
-    <cellStyle name="Normal 105" xfId="105"/>
-    <cellStyle name="Normal 106" xfId="106"/>
-    <cellStyle name="Normal 107" xfId="107"/>
-    <cellStyle name="Normal 108" xfId="108"/>
-    <cellStyle name="Normal 109" xfId="109"/>
-    <cellStyle name="Normal 11" xfId="11"/>
-    <cellStyle name="Normal 110" xfId="110"/>
-    <cellStyle name="Normal 111" xfId="111"/>
-    <cellStyle name="Normal 112" xfId="112"/>
-    <cellStyle name="Normal 113" xfId="113"/>
-    <cellStyle name="Normal 114" xfId="114"/>
-    <cellStyle name="Normal 115" xfId="115"/>
-    <cellStyle name="Normal 116" xfId="116"/>
-    <cellStyle name="Normal 117" xfId="117"/>
-    <cellStyle name="Normal 118" xfId="118"/>
-    <cellStyle name="Normal 119" xfId="119"/>
-    <cellStyle name="Normal 12" xfId="12"/>
-    <cellStyle name="Normal 120" xfId="120"/>
-    <cellStyle name="Normal 121" xfId="121"/>
-    <cellStyle name="Normal 122" xfId="122"/>
-    <cellStyle name="Normal 123" xfId="123"/>
-    <cellStyle name="Normal 124" xfId="124"/>
-    <cellStyle name="Normal 125" xfId="125"/>
-    <cellStyle name="Normal 126" xfId="126"/>
-    <cellStyle name="Normal 127" xfId="127"/>
-    <cellStyle name="Normal 128" xfId="128"/>
-    <cellStyle name="Normal 129" xfId="129"/>
-    <cellStyle name="Normal 13" xfId="13"/>
-    <cellStyle name="Normal 130" xfId="130"/>
-    <cellStyle name="Normal 131" xfId="131"/>
-    <cellStyle name="Normal 132" xfId="132"/>
-    <cellStyle name="Normal 133" xfId="133"/>
-    <cellStyle name="Normal 134" xfId="134"/>
-    <cellStyle name="Normal 135" xfId="135"/>
-    <cellStyle name="Normal 136" xfId="136"/>
-    <cellStyle name="Normal 137" xfId="137"/>
-    <cellStyle name="Normal 138" xfId="138"/>
-    <cellStyle name="Normal 139" xfId="139"/>
-    <cellStyle name="Normal 14" xfId="14"/>
-    <cellStyle name="Normal 140" xfId="140"/>
-    <cellStyle name="Normal 141" xfId="141"/>
-    <cellStyle name="Normal 142" xfId="142"/>
-    <cellStyle name="Normal 143" xfId="143"/>
-    <cellStyle name="Normal 144" xfId="144"/>
-    <cellStyle name="Normal 145" xfId="145"/>
-    <cellStyle name="Normal 146" xfId="146"/>
-    <cellStyle name="Normal 147" xfId="147"/>
-    <cellStyle name="Normal 148" xfId="148"/>
-    <cellStyle name="Normal 149" xfId="149"/>
-    <cellStyle name="Normal 15" xfId="15"/>
-    <cellStyle name="Normal 150" xfId="150"/>
-    <cellStyle name="Normal 151" xfId="151"/>
-    <cellStyle name="Normal 152" xfId="152"/>
-    <cellStyle name="Normal 153" xfId="153"/>
-    <cellStyle name="Normal 154" xfId="154"/>
-    <cellStyle name="Normal 155" xfId="155"/>
-    <cellStyle name="Normal 156" xfId="156"/>
-    <cellStyle name="Normal 157" xfId="157"/>
-    <cellStyle name="Normal 158" xfId="158"/>
-    <cellStyle name="Normal 159" xfId="159"/>
-    <cellStyle name="Normal 16" xfId="16"/>
-    <cellStyle name="Normal 160" xfId="160"/>
-    <cellStyle name="Normal 161" xfId="161"/>
-    <cellStyle name="Normal 162" xfId="162"/>
-    <cellStyle name="Normal 163" xfId="163"/>
-    <cellStyle name="Normal 164" xfId="164"/>
-    <cellStyle name="Normal 165" xfId="165"/>
-    <cellStyle name="Normal 166" xfId="166"/>
-    <cellStyle name="Normal 167" xfId="168"/>
-    <cellStyle name="Normal 168" xfId="167"/>
-    <cellStyle name="Normal 168 2" xfId="225"/>
-    <cellStyle name="Normal 169" xfId="201"/>
-    <cellStyle name="Normal 17" xfId="17"/>
-    <cellStyle name="Normal 170" xfId="219"/>
-    <cellStyle name="Normal 171" xfId="202"/>
-    <cellStyle name="Normal 172" xfId="217"/>
-    <cellStyle name="Normal 173" xfId="204"/>
-    <cellStyle name="Normal 174" xfId="216"/>
-    <cellStyle name="Normal 175" xfId="206"/>
-    <cellStyle name="Normal 176" xfId="176"/>
-    <cellStyle name="Normal 177" xfId="207"/>
-    <cellStyle name="Normal 178" xfId="180"/>
-    <cellStyle name="Normal 179" xfId="191"/>
-    <cellStyle name="Normal 18" xfId="18"/>
-    <cellStyle name="Normal 180" xfId="182"/>
-    <cellStyle name="Normal 181" xfId="170"/>
-    <cellStyle name="Normal 182" xfId="199"/>
-    <cellStyle name="Normal 183" xfId="221"/>
-    <cellStyle name="Normal 184" xfId="222"/>
-    <cellStyle name="Normal 185" xfId="223"/>
-    <cellStyle name="Normal 186" xfId="224"/>
-    <cellStyle name="Normal 187" xfId="177"/>
-    <cellStyle name="Normal 188" xfId="194"/>
-    <cellStyle name="Normal 189" xfId="174"/>
-    <cellStyle name="Normal 19" xfId="19"/>
-    <cellStyle name="Normal 190" xfId="197"/>
-    <cellStyle name="Normal 191" xfId="214"/>
-    <cellStyle name="Normal 192" xfId="195"/>
-    <cellStyle name="Normal 193" xfId="212"/>
-    <cellStyle name="Normal 194" xfId="208"/>
-    <cellStyle name="Normal 195" xfId="211"/>
-    <cellStyle name="Normal 196" xfId="173"/>
-    <cellStyle name="Normal 197" xfId="198"/>
-    <cellStyle name="Normal 198" xfId="209"/>
-    <cellStyle name="Normal 199" xfId="171"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 20" xfId="20"/>
-    <cellStyle name="Normal 200" xfId="210"/>
-    <cellStyle name="Normal 201" xfId="179"/>
-    <cellStyle name="Normal 202" xfId="192"/>
-    <cellStyle name="Normal 203" xfId="169"/>
-    <cellStyle name="Normal 204" xfId="200"/>
-    <cellStyle name="Normal 205" xfId="220"/>
-    <cellStyle name="Normal 206" xfId="172"/>
-    <cellStyle name="Normal 207" xfId="218"/>
-    <cellStyle name="Normal 208" xfId="203"/>
-    <cellStyle name="Normal 209" xfId="196"/>
-    <cellStyle name="Normal 21" xfId="21"/>
-    <cellStyle name="Normal 210" xfId="205"/>
-    <cellStyle name="Normal 211" xfId="215"/>
-    <cellStyle name="Normal 212" xfId="175"/>
-    <cellStyle name="Normal 213" xfId="213"/>
-    <cellStyle name="Normal 214" xfId="178"/>
-    <cellStyle name="Normal 215" xfId="193"/>
-    <cellStyle name="Normal 216" xfId="181"/>
-    <cellStyle name="Normal 217" xfId="190"/>
-    <cellStyle name="Normal 218" xfId="183"/>
-    <cellStyle name="Normal 219" xfId="189"/>
-    <cellStyle name="Normal 22" xfId="22"/>
-    <cellStyle name="Normal 220" xfId="184"/>
-    <cellStyle name="Normal 221" xfId="188"/>
-    <cellStyle name="Normal 222" xfId="185"/>
-    <cellStyle name="Normal 223" xfId="187"/>
-    <cellStyle name="Normal 224" xfId="186"/>
-    <cellStyle name="Normal 23" xfId="23"/>
-    <cellStyle name="Normal 24" xfId="24"/>
-    <cellStyle name="Normal 25" xfId="25"/>
-    <cellStyle name="Normal 26" xfId="26"/>
-    <cellStyle name="Normal 27" xfId="27"/>
-    <cellStyle name="Normal 28" xfId="28"/>
-    <cellStyle name="Normal 29" xfId="29"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 30" xfId="30"/>
-    <cellStyle name="Normal 31" xfId="31"/>
-    <cellStyle name="Normal 32" xfId="32"/>
-    <cellStyle name="Normal 33" xfId="33"/>
-    <cellStyle name="Normal 34" xfId="34"/>
-    <cellStyle name="Normal 35" xfId="35"/>
-    <cellStyle name="Normal 36" xfId="36"/>
-    <cellStyle name="Normal 37" xfId="37"/>
-    <cellStyle name="Normal 38" xfId="38"/>
-    <cellStyle name="Normal 39" xfId="39"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 40" xfId="40"/>
-    <cellStyle name="Normal 41" xfId="41"/>
-    <cellStyle name="Normal 42" xfId="42"/>
-    <cellStyle name="Normal 43" xfId="43"/>
-    <cellStyle name="Normal 44" xfId="44"/>
-    <cellStyle name="Normal 45" xfId="45"/>
-    <cellStyle name="Normal 46" xfId="46"/>
-    <cellStyle name="Normal 47" xfId="47"/>
-    <cellStyle name="Normal 48" xfId="48"/>
-    <cellStyle name="Normal 49" xfId="49"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 50" xfId="50"/>
-    <cellStyle name="Normal 51" xfId="51"/>
-    <cellStyle name="Normal 52" xfId="52"/>
-    <cellStyle name="Normal 53" xfId="53"/>
-    <cellStyle name="Normal 54" xfId="54"/>
-    <cellStyle name="Normal 55" xfId="55"/>
-    <cellStyle name="Normal 56" xfId="56"/>
-    <cellStyle name="Normal 57" xfId="57"/>
-    <cellStyle name="Normal 58" xfId="58"/>
-    <cellStyle name="Normal 59" xfId="59"/>
-    <cellStyle name="Normal 6" xfId="6"/>
-    <cellStyle name="Normal 60" xfId="60"/>
-    <cellStyle name="Normal 61" xfId="61"/>
-    <cellStyle name="Normal 62" xfId="62"/>
-    <cellStyle name="Normal 63" xfId="63"/>
-    <cellStyle name="Normal 64" xfId="64"/>
-    <cellStyle name="Normal 65" xfId="65"/>
-    <cellStyle name="Normal 66" xfId="66"/>
-    <cellStyle name="Normal 67" xfId="67"/>
-    <cellStyle name="Normal 68" xfId="68"/>
-    <cellStyle name="Normal 69" xfId="69"/>
-    <cellStyle name="Normal 7" xfId="7"/>
-    <cellStyle name="Normal 70" xfId="70"/>
-    <cellStyle name="Normal 71" xfId="71"/>
-    <cellStyle name="Normal 72" xfId="72"/>
-    <cellStyle name="Normal 73" xfId="73"/>
-    <cellStyle name="Normal 74" xfId="74"/>
-    <cellStyle name="Normal 75" xfId="75"/>
-    <cellStyle name="Normal 76" xfId="76"/>
-    <cellStyle name="Normal 77" xfId="77"/>
-    <cellStyle name="Normal 78" xfId="78"/>
-    <cellStyle name="Normal 79" xfId="79"/>
-    <cellStyle name="Normal 8" xfId="8"/>
-    <cellStyle name="Normal 80" xfId="80"/>
-    <cellStyle name="Normal 81" xfId="81"/>
-    <cellStyle name="Normal 82" xfId="82"/>
-    <cellStyle name="Normal 83" xfId="83"/>
-    <cellStyle name="Normal 84" xfId="84"/>
-    <cellStyle name="Normal 85" xfId="85"/>
-    <cellStyle name="Normal 86" xfId="86"/>
-    <cellStyle name="Normal 87" xfId="87"/>
-    <cellStyle name="Normal 88" xfId="88"/>
-    <cellStyle name="Normal 89" xfId="89"/>
-    <cellStyle name="Normal 9" xfId="9"/>
-    <cellStyle name="Normal 90" xfId="90"/>
-    <cellStyle name="Normal 91" xfId="91"/>
-    <cellStyle name="Normal 92" xfId="92"/>
-    <cellStyle name="Normal 93" xfId="93"/>
-    <cellStyle name="Normal 94" xfId="94"/>
-    <cellStyle name="Normal 95" xfId="95"/>
-    <cellStyle name="Normal 96" xfId="96"/>
-    <cellStyle name="Normal 97" xfId="97"/>
-    <cellStyle name="Normal 98" xfId="98"/>
-    <cellStyle name="Normal 99" xfId="99"/>
+    <cellStyle name="Normal 10" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 100" xfId="100" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 101" xfId="101" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 102" xfId="102" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 103" xfId="103" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 104" xfId="104" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 105" xfId="105" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 106" xfId="106" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 107" xfId="107" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 108" xfId="108" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 109" xfId="109" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 11" xfId="11" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 110" xfId="110" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normal 111" xfId="111" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 112" xfId="112" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 113" xfId="113" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 114" xfId="114" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 115" xfId="115" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 116" xfId="116" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal 117" xfId="117" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal 118" xfId="118" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Normal 119" xfId="119" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 12" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Normal 120" xfId="120" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Normal 121" xfId="121" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Normal 122" xfId="122" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Normal 123" xfId="123" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Normal 124" xfId="124" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Normal 125" xfId="125" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Normal 126" xfId="126" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 127" xfId="127" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 128" xfId="128" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 129" xfId="129" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 13" xfId="13" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal 130" xfId="130" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 131" xfId="131" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Normal 132" xfId="132" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Normal 133" xfId="133" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 134" xfId="134" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Normal 135" xfId="135" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Normal 136" xfId="136" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Normal 137" xfId="137" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 138" xfId="138" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Normal 139" xfId="139" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Normal 14" xfId="14" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Normal 140" xfId="140" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normal 141" xfId="141" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Normal 142" xfId="142" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Normal 143" xfId="143" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Normal 144" xfId="144" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Normal 145" xfId="145" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Normal 146" xfId="146" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal 147" xfId="147" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal 148" xfId="148" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Normal 149" xfId="149" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Normal 15" xfId="15" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Normal 150" xfId="150" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Normal 151" xfId="151" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Normal 152" xfId="152" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Normal 153" xfId="153" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Normal 154" xfId="154" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Normal 155" xfId="155" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Normal 156" xfId="156" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Normal 157" xfId="157" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Normal 158" xfId="158" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Normal 159" xfId="159" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 16" xfId="16" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 160" xfId="160" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 161" xfId="161" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 162" xfId="162" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 163" xfId="163" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 164" xfId="164" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 165" xfId="165" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 166" xfId="166" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 167" xfId="168" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 168" xfId="167" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 168 2" xfId="225" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 169" xfId="201" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 17" xfId="17" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 170" xfId="219" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 171" xfId="202" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 172" xfId="217" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 173" xfId="204" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 174" xfId="216" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 175" xfId="206" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 176" xfId="176" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 177" xfId="207" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 178" xfId="180" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 179" xfId="191" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 18" xfId="18" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 180" xfId="182" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 181" xfId="170" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 182" xfId="199" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 183" xfId="221" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 184" xfId="222" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 185" xfId="223" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 186" xfId="224" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 187" xfId="177" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 188" xfId="194" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 189" xfId="174" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 19" xfId="19" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 190" xfId="197" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 191" xfId="214" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 192" xfId="195" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 193" xfId="212" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 194" xfId="208" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 195" xfId="211" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 196" xfId="173" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 197" xfId="198" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 198" xfId="209" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 199" xfId="171" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 20" xfId="20" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 200" xfId="210" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 201" xfId="179" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Normal 202" xfId="192" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Normal 203" xfId="169" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Normal 204" xfId="200" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Normal 205" xfId="220" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 206" xfId="172" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Normal 207" xfId="218" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Normal 208" xfId="203" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Normal 209" xfId="196" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Normal 21" xfId="21" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Normal 210" xfId="205" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Normal 211" xfId="215" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Normal 212" xfId="175" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Normal 213" xfId="213" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Normal 214" xfId="178" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Normal 215" xfId="193" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Normal 216" xfId="181" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Normal 217" xfId="190" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Normal 218" xfId="183" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Normal 219" xfId="189" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Normal 22" xfId="22" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Normal 220" xfId="184" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Normal 221" xfId="188" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Normal 222" xfId="185" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Normal 223" xfId="187" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Normal 224" xfId="186" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Normal 23" xfId="23" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Normal 24" xfId="24" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Normal 25" xfId="25" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Normal 26" xfId="26" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Normal 27" xfId="27" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Normal 28" xfId="28" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Normal 29" xfId="29" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Normal 30" xfId="30" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Normal 31" xfId="31" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Normal 32" xfId="32" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Normal 33" xfId="33" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 34" xfId="34" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Normal 35" xfId="35" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Normal 36" xfId="36" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Normal 37" xfId="37" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Normal 38" xfId="38" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Normal 39" xfId="39" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Normal 40" xfId="40" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Normal 41" xfId="41" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Normal 42" xfId="42" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Normal 43" xfId="43" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Normal 44" xfId="44" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal 45" xfId="45" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Normal 46" xfId="46" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Normal 47" xfId="47" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Normal 48" xfId="48" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Normal 49" xfId="49" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Normal 50" xfId="50" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Normal 51" xfId="51" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Normal 52" xfId="52" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Normal 53" xfId="53" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Normal 54" xfId="54" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Normal 55" xfId="55" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Normal 56" xfId="56" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Normal 57" xfId="57" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Normal 58" xfId="58" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Normal 59" xfId="59" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Normal 6" xfId="6" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Normal 60" xfId="60" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Normal 61" xfId="61" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Normal 62" xfId="62" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Normal 63" xfId="63" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Normal 64" xfId="64" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Normal 65" xfId="65" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Normal 66" xfId="66" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Normal 67" xfId="67" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Normal 68" xfId="68" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Normal 69" xfId="69" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Normal 7" xfId="7" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Normal 70" xfId="70" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Normal 71" xfId="71" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Normal 72" xfId="72" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Normal 73" xfId="73" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Normal 74" xfId="74" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Normal 75" xfId="75" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Normal 76" xfId="76" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Normal 77" xfId="77" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 78" xfId="78" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 79" xfId="79" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 8" xfId="8" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 80" xfId="80" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 81" xfId="81" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 82" xfId="82" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 83" xfId="83" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 84" xfId="84" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 85" xfId="85" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 86" xfId="86" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 87" xfId="87" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 88" xfId="88" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 89" xfId="89" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 9" xfId="9" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 90" xfId="90" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 91" xfId="91" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 92" xfId="92" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 93" xfId="93" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 94" xfId="94" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 95" xfId="95" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 96" xfId="96" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 97" xfId="97" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 98" xfId="98" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 99" xfId="99" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6165,7 +6184,7 @@
         <xdr:cNvPr id="2" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6204,7 +6223,7 @@
         <xdr:cNvPr id="1027" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280C207E-06C8-2256-0AA1-68ED88AC9625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280C207E-06C8-2256-0AA1-68ED88AC9625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6265,7 +6284,7 @@
         <xdr:cNvPr id="1028" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDFDB49-D60A-CE14-EF48-C8689B7A3284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDFDB49-D60A-CE14-EF48-C8689B7A3284}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6326,7 +6345,7 @@
         <xdr:cNvPr id="1029" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFAFCEE-C66E-BA2D-D447-122DD17DE7ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFFAFCEE-C66E-BA2D-D447-122DD17DE7ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6387,7 +6406,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E781C0DE-3752-7B30-A1CA-EB12C68127FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E781C0DE-3752-7B30-A1CA-EB12C68127FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6448,7 +6467,7 @@
         <xdr:cNvPr id="1031" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C95D8-4422-A85A-A376-8E6876019CA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5C95D8-4422-A85A-A376-8E6876019CA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6504,7 +6523,7 @@
         <xdr:cNvPr id="3" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4461707-C5FE-412B-8AB8-293EADFABDAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4461707-C5FE-412B-8AB8-293EADFABDAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6547,7 +6566,7 @@
         <xdr:cNvPr id="1032" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EA620E-2F58-4135-F8FC-BD79E6B6870A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3EA620E-2F58-4135-F8FC-BD79E6B6870A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6608,7 +6627,7 @@
         <xdr:cNvPr id="1033" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A0133A-BD87-170A-C995-5303FD4920F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A0133A-BD87-170A-C995-5303FD4920F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6669,7 +6688,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8C875E-7991-97BF-6DDB-1CBC6EC43DC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8C875E-7991-97BF-6DDB-1CBC6EC43DC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6730,7 +6749,7 @@
         <xdr:cNvPr id="1035" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DF4B9D-9E91-E62B-72D9-3B8B36458A47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DF4B9D-9E91-E62B-72D9-3B8B36458A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6791,7 +6810,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69B0134-0B9E-BA86-28AE-4106F6419FEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69B0134-0B9E-BA86-28AE-4106F6419FEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6852,7 +6871,7 @@
         <xdr:cNvPr id="1037" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEEA393-D9CC-955A-F872-D5267FE68645}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEEA393-D9CC-955A-F872-D5267FE68645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6913,7 +6932,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C4EE09-B0C6-40A1-D0A6-CDDCCBA1A8F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C4EE09-B0C6-40A1-D0A6-CDDCCBA1A8F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6974,7 +6993,7 @@
         <xdr:cNvPr id="1039" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28514F1E-B8C4-8F0B-FFE1-1706A327CACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28514F1E-B8C4-8F0B-FFE1-1706A327CACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7035,7 +7054,7 @@
         <xdr:cNvPr id="1040" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504DE443-2B03-F284-4ABF-180FD3DE1D3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{504DE443-2B03-F284-4ABF-180FD3DE1D3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7096,7 +7115,7 @@
         <xdr:cNvPr id="1041" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F28980C-1D89-213E-527A-C2FBCBDAD334}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F28980C-1D89-213E-527A-C2FBCBDAD334}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7157,7 +7176,7 @@
         <xdr:cNvPr id="1042" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DFA841-6A28-C19C-0FE7-4FBB97BDF896}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84DFA841-6A28-C19C-0FE7-4FBB97BDF896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7218,7 +7237,7 @@
         <xdr:cNvPr id="1043" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55765D3-CA53-EEEC-34C0-50CFF6BC3C98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55765D3-CA53-EEEC-34C0-50CFF6BC3C98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7279,7 +7298,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33494A34-535D-9EE9-0DAB-68FC3031F3A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33494A34-535D-9EE9-0DAB-68FC3031F3A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7340,7 +7359,7 @@
         <xdr:cNvPr id="1045" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359426EA-F46E-A139-D821-071A4C7D5F85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359426EA-F46E-A139-D821-071A4C7D5F85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7401,7 +7420,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E050CD8-CF26-5CAA-C4BD-DDE26B6374ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E050CD8-CF26-5CAA-C4BD-DDE26B6374ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7462,7 +7481,7 @@
         <xdr:cNvPr id="2" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B095D5DD-184F-42A5-8A2C-BABA2CEC7924}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B095D5DD-184F-42A5-8A2C-BABA2CEC7924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7505,7 +7524,7 @@
         <xdr:cNvPr id="3" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA3FA17-8A51-4E36-B2F7-3FB9DF20BF9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA3FA17-8A51-4E36-B2F7-3FB9DF20BF9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7566,7 +7585,7 @@
         <xdr:cNvPr id="4" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7D0344-BE82-4F02-B1AE-FFD0FFD8E2BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7D0344-BE82-4F02-B1AE-FFD0FFD8E2BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7627,7 +7646,7 @@
         <xdr:cNvPr id="5" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C7EF27-6212-409A-9119-D84BE9FDEF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35C7EF27-6212-409A-9119-D84BE9FDEF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7688,7 +7707,7 @@
         <xdr:cNvPr id="6" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389F659B-ECE9-416C-9289-5AEFA611B62B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389F659B-ECE9-416C-9289-5AEFA611B62B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7749,7 +7768,7 @@
         <xdr:cNvPr id="7" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DAE5C1-2403-4CE0-9CFB-6F9FDCCCAC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DAE5C1-2403-4CE0-9CFB-6F9FDCCCAC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7805,7 +7824,7 @@
         <xdr:cNvPr id="8" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872552E5-547E-4C68-AD15-3B3A4B9CAB92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{872552E5-547E-4C68-AD15-3B3A4B9CAB92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7848,7 +7867,7 @@
         <xdr:cNvPr id="9" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAA3303-AA59-4252-A63B-D6185608ED94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEAA3303-AA59-4252-A63B-D6185608ED94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7909,7 +7928,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5446BFF7-CA33-409E-B456-9DF423D0DE86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5446BFF7-CA33-409E-B456-9DF423D0DE86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,7 +7989,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F810BF0F-0BD3-4BBA-BAC2-73BD643A8A42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F810BF0F-0BD3-4BBA-BAC2-73BD643A8A42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8031,7 +8050,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDF2D29-452E-4E51-A183-B9D062E51C6E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BDF2D29-452E-4E51-A183-B9D062E51C6E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8092,7 +8111,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196B8680-4010-431E-96FD-E98D6B1D18A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196B8680-4010-431E-96FD-E98D6B1D18A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8153,7 +8172,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E22C694-23B8-4B5D-9081-6CDD655BFA7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E22C694-23B8-4B5D-9081-6CDD655BFA7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8214,7 +8233,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664C3804-08E9-4ABC-B82E-2FF26A38B856}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664C3804-08E9-4ABC-B82E-2FF26A38B856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8275,7 +8294,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D463C9CB-64E0-4F19-96F3-5EBF2FE4AD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D463C9CB-64E0-4F19-96F3-5EBF2FE4AD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8336,7 +8355,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0441A09B-D0D4-4B36-9CF3-B5230A33E391}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0441A09B-D0D4-4B36-9CF3-B5230A33E391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8397,7 +8416,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377BC1C6-6D38-4D6E-8EBE-112ABEC356F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{377BC1C6-6D38-4D6E-8EBE-112ABEC356F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8458,7 +8477,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B14DCD-598F-4146-97A0-9D84C142F16D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B14DCD-598F-4146-97A0-9D84C142F16D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8519,7 +8538,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F350F3B-6057-4316-AB6C-70FD775C05D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F350F3B-6057-4316-AB6C-70FD775C05D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8580,7 +8599,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF1493-745C-4BD4-B1D5-C9648EE0135C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AF1493-745C-4BD4-B1D5-C9648EE0135C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8641,7 +8660,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A886430-920B-4196-880B-4AD9AECDF522}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A886430-920B-4196-880B-4AD9AECDF522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8702,7 +8721,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E557AAB6-F19C-4D57-8746-777D87A14FCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E557AAB6-F19C-4D57-8746-777D87A14FCE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8763,7 +8782,7 @@
         <xdr:cNvPr id="2" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2338E59-9AFC-4B58-9597-7EF0CC978AD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2338E59-9AFC-4B58-9597-7EF0CC978AD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8806,7 +8825,7 @@
         <xdr:cNvPr id="3" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD142B1-2A8F-4959-A0A6-DC7E1B237C0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD142B1-2A8F-4959-A0A6-DC7E1B237C0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8867,7 +8886,7 @@
         <xdr:cNvPr id="4" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD6163D-9278-4EBD-AD9E-88B32D96E5E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD6163D-9278-4EBD-AD9E-88B32D96E5E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8928,7 +8947,7 @@
         <xdr:cNvPr id="5" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31CB98C-A748-4186-8D1D-1BCBFD30BC1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31CB98C-A748-4186-8D1D-1BCBFD30BC1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8989,7 +9008,7 @@
         <xdr:cNvPr id="6" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E876BBB-5E6D-4281-8C99-E052AA77E0C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E876BBB-5E6D-4281-8C99-E052AA77E0C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9050,7 +9069,7 @@
         <xdr:cNvPr id="7" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76771B58-1708-43CD-9B3C-46D9224EC86F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76771B58-1708-43CD-9B3C-46D9224EC86F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9106,7 +9125,7 @@
         <xdr:cNvPr id="8" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D75FFF0-F7C0-49F1-A673-374A1E38A27E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D75FFF0-F7C0-49F1-A673-374A1E38A27E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9149,7 +9168,7 @@
         <xdr:cNvPr id="9" name="image1.jpg">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54C4A0-3A8A-4BA7-91D8-E2BA537E5549}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D54C4A0-3A8A-4BA7-91D8-E2BA537E5549}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9210,7 +9229,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C176E4E5-D24E-46DA-9963-2F5F9B179F08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C176E4E5-D24E-46DA-9963-2F5F9B179F08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9271,7 +9290,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF08BF80-2378-48BA-B3EB-5FFBD836F480}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF08BF80-2378-48BA-B3EB-5FFBD836F480}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9332,7 +9351,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DBC6EC-29F4-468B-AB85-A659BB00E9EC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DBC6EC-29F4-468B-AB85-A659BB00E9EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9393,7 +9412,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029B7C17-B5E6-4BB5-8ED7-B7F2ADCA7D40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{029B7C17-B5E6-4BB5-8ED7-B7F2ADCA7D40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9454,7 +9473,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654230C7-4125-431C-A00A-131F14372C8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654230C7-4125-431C-A00A-131F14372C8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9515,7 +9534,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F959D52-E809-4B9E-B40E-50ADABCB650B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F959D52-E809-4B9E-B40E-50ADABCB650B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9576,7 +9595,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C661BD3A-DB9B-4846-B597-AAC16BCDFC60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C661BD3A-DB9B-4846-B597-AAC16BCDFC60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9637,7 +9656,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859CE241-F57D-4492-92F8-596A816044AF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{859CE241-F57D-4492-92F8-596A816044AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9698,7 +9717,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAFF372-842C-41C6-95E8-13FCB1F65BC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BAFF372-842C-41C6-95E8-13FCB1F65BC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9759,7 +9778,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB68AA05-0D66-4CC5-812F-61814C37C1A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB68AA05-0D66-4CC5-812F-61814C37C1A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9820,7 +9839,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1BDCC2-5E8B-402F-B650-CB43068727DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1BDCC2-5E8B-402F-B650-CB43068727DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9881,7 +9900,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D746879E-D49A-4EBD-ADEA-F68FF790CF61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D746879E-D49A-4EBD-ADEA-F68FF790CF61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9942,7 +9961,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BD1F95-17AC-46DD-A7FB-4CCC46322833}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1BD1F95-17AC-46DD-A7FB-4CCC46322833}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10003,7 +10022,7 @@
         <xdr:cNvPr id="23" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E64632-B429-4469-B452-3BFBD310151C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E64632-B429-4469-B452-3BFBD310151C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10246,10 +10265,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -11064,7 +11083,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>771</v>
@@ -15513,7 +15532,7 @@
         <v>1501</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>523</v>
@@ -16735,7 +16754,7 @@
         <v>1357</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>565</v>
@@ -17125,7 +17144,7 @@
         <v>1368</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>578</v>
@@ -20141,7 +20160,7 @@
         <v>1498</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>676</v>
@@ -20779,11 +20798,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O983"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="R83" sqref="R83"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21233,7 +21252,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>34</v>
@@ -22065,7 +22084,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>178</v>
@@ -22091,7 +22110,7 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>178</v>
@@ -22247,7 +22266,7 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1596</v>
+        <v>1834</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>202</v>
@@ -25857,11 +25876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q983"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="Q206" sqref="Q206"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25921,7 +25940,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>755</v>
@@ -25947,7 +25966,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>755</v>
@@ -25973,7 +25992,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>758</v>
@@ -25999,7 +26018,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>760</v>
@@ -26025,7 +26044,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
@@ -26051,7 +26070,7 @@
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>763</v>
@@ -26077,7 +26096,7 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>765</v>
@@ -26103,7 +26122,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>767</v>
@@ -26129,7 +26148,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>18</v>
@@ -26155,7 +26174,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>18</v>
@@ -26181,7 +26200,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>771</v>
@@ -26207,7 +26226,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>773</v>
@@ -26233,7 +26252,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>775</v>
@@ -26259,7 +26278,7 @@
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>777</v>
@@ -26285,7 +26304,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>779</v>
@@ -26311,7 +26330,7 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>781</v>
@@ -26337,7 +26356,7 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>783</v>
@@ -26363,7 +26382,7 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>785</v>
@@ -26389,7 +26408,7 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>787</v>
@@ -26415,7 +26434,7 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>789</v>
@@ -26441,7 +26460,7 @@
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>791</v>
@@ -26467,7 +26486,7 @@
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>793</v>
@@ -26493,7 +26512,7 @@
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>793</v>
@@ -26519,7 +26538,7 @@
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>51</v>
@@ -26545,7 +26564,7 @@
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>797</v>
@@ -26571,7 +26590,7 @@
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>59</v>
@@ -26597,7 +26616,7 @@
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>60</v>
@@ -26623,7 +26642,7 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>801</v>
@@ -26649,7 +26668,7 @@
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>803</v>
@@ -26675,7 +26694,7 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>805</v>
@@ -26701,7 +26720,7 @@
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>807</v>
@@ -26727,7 +26746,7 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>73</v>
@@ -26753,7 +26772,7 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>76</v>
@@ -26779,7 +26798,7 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>811</v>
@@ -26805,7 +26824,7 @@
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>813</v>
@@ -26831,7 +26850,7 @@
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>80</v>
@@ -26857,7 +26876,7 @@
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>816</v>
@@ -26883,7 +26902,7 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>818</v>
@@ -26909,7 +26928,7 @@
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>820</v>
@@ -26935,7 +26954,7 @@
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>822</v>
@@ -26961,7 +26980,7 @@
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>822</v>
@@ -26987,7 +27006,7 @@
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>825</v>
@@ -27013,7 +27032,7 @@
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>827</v>
@@ -27039,7 +27058,7 @@
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>87</v>
@@ -27065,7 +27084,7 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>830</v>
@@ -27091,7 +27110,7 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>832</v>
@@ -27117,7 +27136,7 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>91</v>
@@ -27143,7 +27162,7 @@
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>835</v>
@@ -27169,7 +27188,7 @@
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>837</v>
@@ -27195,7 +27214,7 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>837</v>
@@ -27221,7 +27240,7 @@
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>837</v>
@@ -27247,7 +27266,7 @@
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>837</v>
@@ -27273,7 +27292,7 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>842</v>
@@ -27299,7 +27318,7 @@
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>98</v>
@@ -27325,7 +27344,7 @@
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>845</v>
@@ -27351,7 +27370,7 @@
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>100</v>
@@ -27377,7 +27396,7 @@
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>102</v>
@@ -27403,7 +27422,7 @@
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>849</v>
@@ -27429,7 +27448,7 @@
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>849</v>
@@ -27455,7 +27474,7 @@
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>852</v>
@@ -27481,7 +27500,7 @@
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>854</v>
@@ -27507,7 +27526,7 @@
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>856</v>
@@ -27533,7 +27552,7 @@
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>112</v>
@@ -27559,7 +27578,7 @@
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>859</v>
@@ -27585,7 +27604,7 @@
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>861</v>
@@ -27611,7 +27630,7 @@
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>863</v>
@@ -27637,7 +27656,7 @@
     </row>
     <row r="68" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>865</v>
@@ -27663,7 +27682,7 @@
     </row>
     <row r="69" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>115</v>
@@ -27689,7 +27708,7 @@
     </row>
     <row r="70" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>115</v>
@@ -27715,13 +27734,13 @@
     </row>
     <row r="71" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="D71" s="9">
         <v>10</v>
@@ -27741,7 +27760,7 @@
     </row>
     <row r="72" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="8" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>869</v>
@@ -27767,7 +27786,7 @@
     </row>
     <row r="73" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>871</v>
@@ -27793,7 +27812,7 @@
     </row>
     <row r="74" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>873</v>
@@ -27819,7 +27838,7 @@
     </row>
     <row r="75" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>875</v>
@@ -27845,7 +27864,7 @@
     </row>
     <row r="76" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>681</v>
@@ -27871,7 +27890,7 @@
     </row>
     <row r="77" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>123</v>
@@ -27897,7 +27916,7 @@
     </row>
     <row r="78" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>879</v>
@@ -27923,7 +27942,7 @@
     </row>
     <row r="79" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>124</v>
@@ -27949,7 +27968,7 @@
     </row>
     <row r="80" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>882</v>
@@ -27975,7 +27994,7 @@
     </row>
     <row r="81" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>884</v>
@@ -28001,7 +28020,7 @@
     </row>
     <row r="82" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>126</v>
@@ -28027,7 +28046,7 @@
     </row>
     <row r="83" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>126</v>
@@ -28053,7 +28072,7 @@
     </row>
     <row r="84" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>888</v>
@@ -28079,7 +28098,7 @@
     </row>
     <row r="85" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>890</v>
@@ -28105,7 +28124,7 @@
     </row>
     <row r="86" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>892</v>
@@ -28131,7 +28150,7 @@
     </row>
     <row r="87" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>130</v>
@@ -28157,7 +28176,7 @@
     </row>
     <row r="88" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>130</v>
@@ -28183,7 +28202,7 @@
     </row>
     <row r="89" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>896</v>
@@ -28209,7 +28228,7 @@
     </row>
     <row r="90" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>898</v>
@@ -28235,7 +28254,7 @@
     </row>
     <row r="91" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>900</v>
@@ -28261,7 +28280,7 @@
     </row>
     <row r="92" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>902</v>
@@ -28287,7 +28306,7 @@
     </row>
     <row r="93" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>904</v>
@@ -28313,7 +28332,7 @@
     </row>
     <row r="94" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>140</v>
@@ -28339,7 +28358,7 @@
     </row>
     <row r="95" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>141</v>
@@ -28365,7 +28384,7 @@
     </row>
     <row r="96" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>908</v>
@@ -28391,7 +28410,7 @@
     </row>
     <row r="97" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>910</v>
@@ -28417,7 +28436,7 @@
     </row>
     <row r="98" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>143</v>
@@ -28443,7 +28462,7 @@
     </row>
     <row r="99" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>913</v>
@@ -28469,7 +28488,7 @@
     </row>
     <row r="100" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>915</v>
@@ -28495,7 +28514,7 @@
     </row>
     <row r="101" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>917</v>
@@ -28521,7 +28540,7 @@
     </row>
     <row r="102" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>148</v>
@@ -28547,7 +28566,7 @@
     </row>
     <row r="103" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>148</v>
@@ -28573,7 +28592,7 @@
     </row>
     <row r="104" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>920</v>
@@ -28599,7 +28618,7 @@
     </row>
     <row r="105" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>922</v>
@@ -28625,7 +28644,7 @@
     </row>
     <row r="106" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>154</v>
@@ -28651,7 +28670,7 @@
     </row>
     <row r="107" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>925</v>
@@ -28677,7 +28696,7 @@
     </row>
     <row r="108" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>156</v>
@@ -28703,7 +28722,7 @@
     </row>
     <row r="109" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>928</v>
@@ -28729,7 +28748,7 @@
     </row>
     <row r="110" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>930</v>
@@ -28755,7 +28774,7 @@
     </row>
     <row r="111" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>932</v>
@@ -28781,7 +28800,7 @@
     </row>
     <row r="112" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>934</v>
@@ -28807,7 +28826,7 @@
     </row>
     <row r="113" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>611</v>
@@ -28833,7 +28852,7 @@
     </row>
     <row r="114" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>937</v>
@@ -28859,7 +28878,7 @@
     </row>
     <row r="115" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>939</v>
@@ -28885,7 +28904,7 @@
     </row>
     <row r="116" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>941</v>
@@ -28911,7 +28930,7 @@
     </row>
     <row r="117" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>943</v>
@@ -28937,7 +28956,7 @@
     </row>
     <row r="118" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>945</v>
@@ -28963,7 +28982,7 @@
     </row>
     <row r="119" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>945</v>
@@ -28989,7 +29008,7 @@
     </row>
     <row r="120" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>948</v>
@@ -29015,7 +29034,7 @@
     </row>
     <row r="121" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>950</v>
@@ -29041,7 +29060,7 @@
     </row>
     <row r="122" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>952</v>
@@ -29067,7 +29086,7 @@
     </row>
     <row r="123" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>954</v>
@@ -29093,7 +29112,7 @@
     </row>
     <row r="124" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>956</v>
@@ -29119,7 +29138,7 @@
     </row>
     <row r="125" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>958</v>
@@ -29145,7 +29164,7 @@
     </row>
     <row r="126" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>186</v>
@@ -29171,7 +29190,7 @@
     </row>
     <row r="127" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>186</v>
@@ -29197,7 +29216,7 @@
     </row>
     <row r="128" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>186</v>
@@ -29223,7 +29242,7 @@
     </row>
     <row r="129" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>962</v>
@@ -29249,7 +29268,7 @@
     </row>
     <row r="130" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>964</v>
@@ -29275,7 +29294,7 @@
     </row>
     <row r="131" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>966</v>
@@ -29301,7 +29320,7 @@
     </row>
     <row r="132" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="B132" s="10" t="s">
         <v>968</v>
@@ -29327,7 +29346,7 @@
     </row>
     <row r="133" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B133" s="10" t="s">
         <v>970</v>
@@ -29353,7 +29372,7 @@
     </row>
     <row r="134" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>972</v>
@@ -29379,7 +29398,7 @@
     </row>
     <row r="135" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>974</v>
@@ -29405,7 +29424,7 @@
     </row>
     <row r="136" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>976</v>
@@ -29431,7 +29450,7 @@
     </row>
     <row r="137" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>978</v>
@@ -29457,7 +29476,7 @@
     </row>
     <row r="138" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="B138" s="9" t="s">
         <v>980</v>
@@ -29483,7 +29502,7 @@
     </row>
     <row r="139" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>982</v>
@@ -29509,7 +29528,7 @@
     </row>
     <row r="140" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>984</v>
@@ -29535,7 +29554,7 @@
     </row>
     <row r="141" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>986</v>
@@ -29561,7 +29580,7 @@
     </row>
     <row r="142" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>988</v>
@@ -29587,7 +29606,7 @@
     </row>
     <row r="143" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>990</v>
@@ -29613,7 +29632,7 @@
     </row>
     <row r="144" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>992</v>
@@ -29639,7 +29658,7 @@
     </row>
     <row r="145" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>994</v>
@@ -29665,7 +29684,7 @@
     </row>
     <row r="146" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>996</v>
@@ -29691,7 +29710,7 @@
     </row>
     <row r="147" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>996</v>
@@ -29717,7 +29736,7 @@
     </row>
     <row r="148" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>999</v>
@@ -29743,7 +29762,7 @@
     </row>
     <row r="149" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>1001</v>
@@ -29769,7 +29788,7 @@
     </row>
     <row r="150" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>215</v>
@@ -29795,7 +29814,7 @@
     </row>
     <row r="151" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>215</v>
@@ -29821,7 +29840,7 @@
     </row>
     <row r="152" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>1005</v>
@@ -29847,7 +29866,7 @@
     </row>
     <row r="153" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>1007</v>
@@ -29873,7 +29892,7 @@
     </row>
     <row r="154" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>1009</v>
@@ -29899,7 +29918,7 @@
     </row>
     <row r="155" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>1011</v>
@@ -29925,7 +29944,7 @@
     </row>
     <row r="156" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>1013</v>
@@ -29951,7 +29970,7 @@
     </row>
     <row r="157" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>1015</v>
@@ -29977,7 +29996,7 @@
     </row>
     <row r="158" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>1017</v>
@@ -30003,7 +30022,7 @@
     </row>
     <row r="159" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>236</v>
@@ -30029,7 +30048,7 @@
     </row>
     <row r="160" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>1019</v>
@@ -30055,7 +30074,7 @@
     </row>
     <row r="161" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>1021</v>
@@ -30081,7 +30100,7 @@
     </row>
     <row r="162" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>239</v>
@@ -30107,7 +30126,7 @@
     </row>
     <row r="163" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="8" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>239</v>
@@ -30133,7 +30152,7 @@
     </row>
     <row r="164" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>1025</v>
@@ -30159,7 +30178,7 @@
     </row>
     <row r="165" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>1027</v>
@@ -30185,7 +30204,7 @@
     </row>
     <row r="166" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>1029</v>
@@ -30211,7 +30230,7 @@
     </row>
     <row r="167" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>1031</v>
@@ -30237,7 +30256,7 @@
     </row>
     <row r="168" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>247</v>
@@ -30263,7 +30282,7 @@
     </row>
     <row r="169" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>247</v>
@@ -30289,7 +30308,7 @@
     </row>
     <row r="170" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>1035</v>
@@ -30315,7 +30334,7 @@
     </row>
     <row r="171" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="8" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>1037</v>
@@ -30341,7 +30360,7 @@
     </row>
     <row r="172" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="8" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>252</v>
@@ -30367,7 +30386,7 @@
     </row>
     <row r="173" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>1040</v>
@@ -30393,7 +30412,7 @@
     </row>
     <row r="174" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>1042</v>
@@ -30419,7 +30438,7 @@
     </row>
     <row r="175" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>1044</v>
@@ -30445,7 +30464,7 @@
     </row>
     <row r="176" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>1046</v>
@@ -30471,7 +30490,7 @@
     </row>
     <row r="177" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>1048</v>
@@ -30497,7 +30516,7 @@
     </row>
     <row r="178" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>1050</v>
@@ -30523,7 +30542,7 @@
     </row>
     <row r="179" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>268</v>
@@ -30549,7 +30568,7 @@
     </row>
     <row r="180" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="8" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>269</v>
@@ -30575,7 +30594,7 @@
     </row>
     <row r="181" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>269</v>
@@ -30601,7 +30620,7 @@
     </row>
     <row r="182" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>271</v>
@@ -30627,7 +30646,7 @@
     </row>
     <row r="183" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>1056</v>
@@ -30653,7 +30672,7 @@
     </row>
     <row r="184" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>1058</v>
@@ -30679,7 +30698,7 @@
     </row>
     <row r="185" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>1060</v>
@@ -30705,7 +30724,7 @@
     </row>
     <row r="186" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>1062</v>
@@ -30731,7 +30750,7 @@
     </row>
     <row r="187" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>1064</v>
@@ -30757,7 +30776,7 @@
     </row>
     <row r="188" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="8" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>1066</v>
@@ -30783,7 +30802,7 @@
     </row>
     <row r="189" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="8" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>1068</v>
@@ -30809,7 +30828,7 @@
     </row>
     <row r="190" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>1070</v>
@@ -30835,7 +30854,7 @@
     </row>
     <row r="191" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>1072</v>
@@ -30861,7 +30880,7 @@
     </row>
     <row r="192" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>282</v>
@@ -30887,7 +30906,7 @@
     </row>
     <row r="193" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>1075</v>
@@ -30913,7 +30932,7 @@
     </row>
     <row r="194" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>288</v>
@@ -30939,7 +30958,7 @@
     </row>
     <row r="195" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>288</v>
@@ -30965,7 +30984,7 @@
     </row>
     <row r="196" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>1079</v>
@@ -30991,7 +31010,7 @@
     </row>
     <row r="197" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="8" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>291</v>
@@ -31017,7 +31036,7 @@
     </row>
     <row r="198" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>596</v>
@@ -31043,7 +31062,7 @@
     </row>
     <row r="199" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>1083</v>
@@ -31069,7 +31088,7 @@
     </row>
     <row r="200" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>1085</v>
@@ -31095,7 +31114,7 @@
     </row>
     <row r="201" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>296</v>
@@ -31121,7 +31140,7 @@
     </row>
     <row r="202" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>1088</v>
@@ -31147,7 +31166,7 @@
     </row>
     <row r="203" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>1090</v>
@@ -31173,7 +31192,7 @@
     </row>
     <row r="204" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>1092</v>
@@ -31199,7 +31218,7 @@
     </row>
     <row r="205" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>1092</v>
@@ -31225,7 +31244,7 @@
     </row>
     <row r="206" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="8" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>1095</v>
@@ -31251,7 +31270,7 @@
     </row>
     <row r="207" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>1097</v>
@@ -31277,7 +31296,7 @@
     </row>
     <row r="208" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>1099</v>
@@ -31303,7 +31322,7 @@
     </row>
     <row r="209" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="B209" s="9" t="s">
         <v>1101</v>
@@ -31329,7 +31348,7 @@
     </row>
     <row r="210" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="B210" s="9" t="s">
         <v>1103</v>
@@ -31355,7 +31374,7 @@
     </row>
     <row r="211" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="B211" s="9" t="s">
         <v>1105</v>
@@ -31381,7 +31400,7 @@
     </row>
     <row r="212" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="B212" s="9" t="s">
         <v>308</v>
@@ -31407,7 +31426,7 @@
     </row>
     <row r="213" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="B213" s="9" t="s">
         <v>1108</v>
@@ -31433,7 +31452,7 @@
     </row>
     <row r="214" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="8" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="B214" s="9" t="s">
         <v>1110</v>
@@ -31459,7 +31478,7 @@
     </row>
     <row r="215" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="B215" s="9" t="s">
         <v>314</v>
@@ -31485,7 +31504,7 @@
     </row>
     <row r="216" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>1113</v>
@@ -31511,7 +31530,7 @@
     </row>
     <row r="217" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="8" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="B217" s="9" t="s">
         <v>1115</v>
@@ -31537,7 +31556,7 @@
     </row>
     <row r="218" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>1117</v>
@@ -31563,7 +31582,7 @@
     </row>
     <row r="219" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>1119</v>
@@ -31589,7 +31608,7 @@
     </row>
     <row r="220" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>1121</v>
@@ -31615,7 +31634,7 @@
     </row>
     <row r="221" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>1123</v>
@@ -31641,7 +31660,7 @@
     </row>
     <row r="222" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="8" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>323</v>
@@ -31667,7 +31686,7 @@
     </row>
     <row r="223" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="8" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>326</v>
@@ -31696,7 +31715,7 @@
     </row>
     <row r="224" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>326</v>
@@ -31722,7 +31741,7 @@
     </row>
     <row r="225" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>329</v>
@@ -31748,7 +31767,7 @@
     </row>
     <row r="226" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>685</v>
@@ -31774,7 +31793,7 @@
     </row>
     <row r="227" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>1130</v>
@@ -31800,7 +31819,7 @@
     </row>
     <row r="228" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>1132</v>
@@ -31826,7 +31845,7 @@
     </row>
     <row r="229" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>333</v>
@@ -31852,7 +31871,7 @@
     </row>
     <row r="230" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="8" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>333</v>
